--- a/Documents/MINF16-Product-Backlog.xlsx
+++ b/Documents/MINF16-Product-Backlog.xlsx
@@ -19,6 +19,7 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$A$3:$L$37</definedName>
     <definedName name="AverageSpeedLastEight">OFFSET('[1]PB Burndown'!$P$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
     <definedName name="AverageSpeedRealized">OFFSET('[1]PB Burndown'!$O$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
     <definedName name="AverageSpeedWorstThree">OFFSET('[1]PB Burndown'!$Q$27,1,0,'[1]PB Burndown'!$G$3,1)</definedName>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
   <si>
     <t>Project Name</t>
   </si>
@@ -1506,7 +1507,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1657,9 +1658,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1695,9 +1693,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -1744,6 +1739,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2421,8 +2432,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2449,18 +2460,18 @@
       <c r="B1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="6"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
@@ -2481,16 +2492,16 @@
       <c r="B2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="6"/>
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
@@ -2538,7 +2549,7 @@
       <c r="K3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="6"/>
@@ -2554,2871 +2565,2871 @@
       <c r="W3" s="29"/>
       <c r="X3" s="29"/>
     </row>
-    <row r="4" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:24" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>2</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="57">
         <v>2</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="57">
         <v>0</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="58">
         <v>1</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-    </row>
-    <row r="5" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="63" t="s">
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+    </row>
+    <row r="5" spans="1:24" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="57">
         <v>2</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="57">
         <v>2</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <v>0</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="58">
         <v>1</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-    </row>
-    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="63" t="s">
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+    </row>
+    <row r="6" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6" s="57">
         <v>4</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <v>4</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="57">
         <v>0</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="58">
         <v>1</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-    </row>
-    <row r="7" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="63" t="s">
+      <c r="M6" s="76"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+    </row>
+    <row r="7" spans="1:24" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>1</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="57">
         <v>1</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="57">
         <v>0</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="58">
         <v>1</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-    </row>
-    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="63" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+    </row>
+    <row r="8" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="57">
         <v>1.5</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="57">
         <v>1.5</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <v>0</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="58">
         <v>1</v>
       </c>
-      <c r="L8" s="58" t="s">
+      <c r="L8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-    </row>
-    <row r="9" spans="1:24" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="63" t="s">
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+    </row>
+    <row r="9" spans="1:24" s="78" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9" s="57">
         <v>4</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="57">
         <v>4</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="57">
         <v>0</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="58">
         <v>1</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-    </row>
-    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="63" t="s">
+      <c r="M9" s="76"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+    </row>
+    <row r="10" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <v>4</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <v>4</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <v>0</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="58">
         <v>1</v>
       </c>
-      <c r="L10" s="58" t="s">
+      <c r="L10" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-    </row>
-    <row r="11" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="63" t="s">
+      <c r="M10" s="76"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+    </row>
+    <row r="11" spans="1:24" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="57">
         <v>4</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="57">
         <v>4</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="57">
         <v>0</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="58">
         <v>1</v>
       </c>
-      <c r="L11" s="58" t="s">
+      <c r="L11" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-    </row>
-    <row r="12" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="63" t="s">
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+    </row>
+    <row r="12" spans="1:24" s="78" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="57">
         <v>8</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="57">
         <v>8</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="57">
         <v>0</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="58">
         <v>1</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-    </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="63" t="s">
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+    </row>
+    <row r="13" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="57">
         <v>2</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="57">
         <v>2</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="57">
         <v>0</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="58">
         <v>1</v>
       </c>
-      <c r="L13" s="58" t="s">
+      <c r="L13" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-    </row>
-    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="63" t="s">
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+    </row>
+    <row r="14" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="57">
         <v>4</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="57">
         <v>4</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="57">
         <v>0</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="58">
         <v>1</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-    </row>
-    <row r="15" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="63" t="s">
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+    </row>
+    <row r="15" spans="1:24" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="57">
         <v>2</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="57">
         <v>2</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="57">
         <v>0</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="58">
         <v>1</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="63" t="s">
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+    </row>
+    <row r="16" spans="1:24" s="78" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="57">
         <v>1</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="57">
         <v>1</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="57">
         <v>0</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="58">
         <v>1</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="63" t="s">
+      <c r="M16" s="76"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+    </row>
+    <row r="17" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="57">
         <v>0.5</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="57">
         <v>0.5</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="57">
         <v>0</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="58">
         <v>1</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-    </row>
-    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="M17" s="76"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+    </row>
+    <row r="18" spans="1:24" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="57">
         <v>8</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>8</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="57">
         <v>0</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="80">
         <v>3</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <v>1</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="63" t="s">
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+    </row>
+    <row r="19" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56" t="s">
+      <c r="F19" s="55"/>
+      <c r="G19" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="57">
+        <v>4</v>
+      </c>
+      <c r="I19" s="57">
+        <v>8</v>
+      </c>
+      <c r="J19" s="57">
+        <v>0</v>
+      </c>
+      <c r="K19" s="80">
+        <v>1</v>
+      </c>
+      <c r="L19" s="57">
+        <v>1</v>
+      </c>
+      <c r="M19" s="76"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+    </row>
+    <row r="20" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="57">
+        <v>4</v>
+      </c>
+      <c r="I20" s="57">
+        <v>8</v>
+      </c>
+      <c r="J20" s="57">
+        <v>0</v>
+      </c>
+      <c r="K20" s="80">
+        <v>1</v>
+      </c>
+      <c r="L20" s="57">
+        <v>1</v>
+      </c>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+    </row>
+    <row r="21" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="57">
+        <v>4</v>
+      </c>
+      <c r="I21" s="57">
+        <v>8</v>
+      </c>
+      <c r="J21" s="57">
+        <v>0</v>
+      </c>
+      <c r="K21" s="80">
+        <v>1</v>
+      </c>
+      <c r="L21" s="57">
+        <v>1</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+    </row>
+    <row r="22" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="58">
-        <v>4</v>
-      </c>
-      <c r="I19" s="58">
-        <v>4</v>
-      </c>
-      <c r="J19" s="58">
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="80">
+        <v>1</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+    </row>
+    <row r="23" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="80">
+        <v>3</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+    </row>
+    <row r="24" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="80">
         <v>2</v>
       </c>
-      <c r="K19" s="64">
+      <c r="L24" s="57"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+    </row>
+    <row r="25" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="57">
+        <v>6</v>
+      </c>
+      <c r="I25" s="57">
+        <v>12</v>
+      </c>
+      <c r="J25" s="57">
+        <v>0</v>
+      </c>
+      <c r="K25" s="80">
         <v>1</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L25" s="57">
         <v>1</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="58">
-        <v>4</v>
-      </c>
-      <c r="I20" s="58">
+      <c r="M25" s="76"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+    </row>
+    <row r="26" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="57">
+        <v>6</v>
+      </c>
+      <c r="I26" s="57">
+        <v>12</v>
+      </c>
+      <c r="J26" s="57">
         <v>0</v>
       </c>
-      <c r="J20" s="58">
-        <v>4</v>
-      </c>
-      <c r="K20" s="64">
+      <c r="K26" s="80">
         <v>1</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L26" s="57">
         <v>1</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="58">
-        <v>4</v>
-      </c>
-      <c r="I21" s="58">
+      <c r="M26" s="76"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+    </row>
+    <row r="27" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="80">
+        <v>1</v>
+      </c>
+      <c r="L27" s="57"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+    </row>
+    <row r="28" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="62"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="80">
+        <v>2</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+    </row>
+    <row r="29" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="62"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="80">
+        <v>1</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+    </row>
+    <row r="30" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="80">
+        <v>3</v>
+      </c>
+      <c r="L30" s="57"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+    </row>
+    <row r="31" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="80">
+        <v>1</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+    </row>
+    <row r="32" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="80">
+        <v>1</v>
+      </c>
+      <c r="L32" s="57"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+    </row>
+    <row r="33" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="80">
+        <v>1</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="77"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+    </row>
+    <row r="34" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="62"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="80">
+        <v>3</v>
+      </c>
+      <c r="L34" s="57"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+    </row>
+    <row r="35" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="80">
+        <v>3</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="77"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="77"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+    </row>
+    <row r="36" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="57">
+        <v>8</v>
+      </c>
+      <c r="I36" s="57">
+        <v>12</v>
+      </c>
+      <c r="J36" s="57">
         <v>0</v>
       </c>
-      <c r="J21" s="58">
-        <v>4</v>
-      </c>
-      <c r="K21" s="64">
+      <c r="K36" s="58">
         <v>1</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L36" s="57">
         <v>1</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="64">
-        <v>1</v>
-      </c>
-      <c r="L22" s="58"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="64">
-        <v>3</v>
-      </c>
-      <c r="L23" s="58"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="64">
+      <c r="M36" s="76"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="77"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="77"/>
+    </row>
+    <row r="37" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58">
         <v>2</v>
       </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="58">
-        <v>6</v>
-      </c>
-      <c r="I25" s="58">
-        <v>4</v>
-      </c>
-      <c r="J25" s="58">
-        <v>2</v>
-      </c>
-      <c r="K25" s="64">
-        <v>1</v>
-      </c>
-      <c r="L25" s="58">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="58">
-        <v>6</v>
-      </c>
-      <c r="I26" s="58">
-        <v>0</v>
-      </c>
-      <c r="J26" s="58">
-        <v>6</v>
-      </c>
-      <c r="K26" s="64">
-        <v>1</v>
-      </c>
-      <c r="L26" s="58">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="64">
-        <v>1</v>
-      </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="64">
-        <v>2</v>
-      </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="64">
-        <v>1</v>
-      </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="64">
-        <v>3</v>
-      </c>
-      <c r="L30" s="58"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="64">
-        <v>1</v>
-      </c>
-      <c r="L31" s="58"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="64">
-        <v>1</v>
-      </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="64">
-        <v>1</v>
-      </c>
-      <c r="L33" s="58"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="64">
-        <v>3</v>
-      </c>
-      <c r="L34" s="58"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="64">
-        <v>3</v>
-      </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="58">
-        <v>8</v>
-      </c>
-      <c r="I36" s="58">
-        <v>4</v>
-      </c>
-      <c r="J36" s="58">
-        <v>4</v>
-      </c>
-      <c r="K36" s="59">
-        <v>1</v>
-      </c>
-      <c r="L36" s="58">
-        <v>1</v>
-      </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="59">
-        <v>2</v>
-      </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="58"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="58"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="29"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="29"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="58"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="58"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="29"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="58"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="29"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="29"/>
-      <c r="U75" s="29"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="29"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="29"/>
-      <c r="U76" s="29"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A77" s="56"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="29"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="29"/>
-      <c r="U77" s="29"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="29"/>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="29"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="29"/>
-      <c r="U78" s="29"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="29"/>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="58"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="29"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="29"/>
-      <c r="U79" s="29"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="29"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A80" s="56"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="58"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="29"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="29"/>
-      <c r="U81" s="29"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="29"/>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="29"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="29"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="29"/>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="29"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="29"/>
-      <c r="U83" s="29"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="29"/>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="58"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="29"/>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="58"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="29"/>
-      <c r="S86" s="29"/>
-      <c r="T86" s="29"/>
-      <c r="U86" s="29"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="29"/>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="29"/>
-      <c r="S88" s="29"/>
-      <c r="T88" s="29"/>
-      <c r="U88" s="29"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="29"/>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="59"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="29"/>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A90" s="56"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A92" s="56"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="29"/>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A93" s="56"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="29"/>
-      <c r="S93" s="29"/>
-      <c r="T93" s="29"/>
-      <c r="U93" s="29"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="29"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+    </row>
+    <row r="38" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="77"/>
+      <c r="U38" s="77"/>
+      <c r="V38" s="77"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+    </row>
+    <row r="39" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+    </row>
+    <row r="40" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+    </row>
+    <row r="41" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+    </row>
+    <row r="42" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+    </row>
+    <row r="43" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+    </row>
+    <row r="44" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+    </row>
+    <row r="45" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="77"/>
+      <c r="U45" s="77"/>
+      <c r="V45" s="77"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+    </row>
+    <row r="46" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="77"/>
+      <c r="X46" s="77"/>
+    </row>
+    <row r="47" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="77"/>
+    </row>
+    <row r="48" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+    </row>
+    <row r="49" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+    </row>
+    <row r="50" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="77"/>
+      <c r="X50" s="77"/>
+    </row>
+    <row r="51" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="77"/>
+      <c r="X51" s="77"/>
+    </row>
+    <row r="52" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="77"/>
+    </row>
+    <row r="53" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="77"/>
+      <c r="V53" s="77"/>
+      <c r="W53" s="77"/>
+      <c r="X53" s="77"/>
+    </row>
+    <row r="54" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+    </row>
+    <row r="55" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="76"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
+      <c r="W55" s="77"/>
+      <c r="X55" s="77"/>
+    </row>
+    <row r="56" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="76"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="77"/>
+      <c r="P56" s="77"/>
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="77"/>
+      <c r="X56" s="77"/>
+    </row>
+    <row r="57" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="77"/>
+      <c r="X57" s="77"/>
+    </row>
+    <row r="58" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="77"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="77"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
+      <c r="X58" s="77"/>
+    </row>
+    <row r="59" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="77"/>
+      <c r="X59" s="77"/>
+    </row>
+    <row r="60" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="55"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="77"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="77"/>
+      <c r="X60" s="77"/>
+    </row>
+    <row r="61" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="76"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77"/>
+      <c r="Q61" s="77"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="77"/>
+      <c r="T61" s="77"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="77"/>
+      <c r="W61" s="77"/>
+      <c r="X61" s="77"/>
+    </row>
+    <row r="62" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="77"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="77"/>
+      <c r="T62" s="77"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="77"/>
+      <c r="X62" s="77"/>
+    </row>
+    <row r="63" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="55"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="76"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="77"/>
+      <c r="X63" s="77"/>
+    </row>
+    <row r="64" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="77"/>
+      <c r="P64" s="77"/>
+      <c r="Q64" s="77"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+    </row>
+    <row r="65" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="77"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="77"/>
+      <c r="T65" s="77"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="77"/>
+      <c r="X65" s="77"/>
+    </row>
+    <row r="66" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="77"/>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="77"/>
+      <c r="T66" s="77"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="77"/>
+      <c r="W66" s="77"/>
+      <c r="X66" s="77"/>
+    </row>
+    <row r="67" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="77"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
+      <c r="T67" s="77"/>
+      <c r="U67" s="77"/>
+      <c r="V67" s="77"/>
+      <c r="W67" s="77"/>
+      <c r="X67" s="77"/>
+    </row>
+    <row r="68" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="76"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="77"/>
+      <c r="W68" s="77"/>
+      <c r="X68" s="77"/>
+    </row>
+    <row r="69" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="55"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="76"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
+      <c r="W69" s="77"/>
+      <c r="X69" s="77"/>
+    </row>
+    <row r="70" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="55"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="77"/>
+      <c r="P70" s="77"/>
+      <c r="Q70" s="77"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="77"/>
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
+      <c r="W70" s="77"/>
+      <c r="X70" s="77"/>
+    </row>
+    <row r="71" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="55"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="76"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="77"/>
+      <c r="P71" s="77"/>
+      <c r="Q71" s="77"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="77"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
+      <c r="W71" s="77"/>
+      <c r="X71" s="77"/>
+    </row>
+    <row r="72" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="55"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="77"/>
+      <c r="Q72" s="77"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
+      <c r="T72" s="77"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="77"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+    </row>
+    <row r="73" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="55"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="76"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="77"/>
+      <c r="S73" s="77"/>
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="W73" s="77"/>
+      <c r="X73" s="77"/>
+    </row>
+    <row r="74" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="55"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="58"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="76"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="77"/>
+      <c r="Q74" s="77"/>
+      <c r="R74" s="77"/>
+      <c r="S74" s="77"/>
+      <c r="T74" s="77"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="W74" s="77"/>
+      <c r="X74" s="77"/>
+    </row>
+    <row r="75" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="77"/>
+      <c r="R75" s="77"/>
+      <c r="S75" s="77"/>
+      <c r="T75" s="77"/>
+      <c r="U75" s="77"/>
+      <c r="V75" s="77"/>
+      <c r="W75" s="77"/>
+      <c r="X75" s="77"/>
+    </row>
+    <row r="76" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="55"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="77"/>
+      <c r="P76" s="77"/>
+      <c r="Q76" s="77"/>
+      <c r="R76" s="77"/>
+      <c r="S76" s="77"/>
+      <c r="T76" s="77"/>
+      <c r="U76" s="77"/>
+      <c r="V76" s="77"/>
+      <c r="W76" s="77"/>
+      <c r="X76" s="77"/>
+    </row>
+    <row r="77" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="58"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="77"/>
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="77"/>
+      <c r="W77" s="77"/>
+      <c r="X77" s="77"/>
+    </row>
+    <row r="78" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="55"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77"/>
+      <c r="S78" s="77"/>
+      <c r="T78" s="77"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="77"/>
+      <c r="W78" s="77"/>
+      <c r="X78" s="77"/>
+    </row>
+    <row r="79" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="55"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="58"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
+      <c r="Q79" s="77"/>
+      <c r="R79" s="77"/>
+      <c r="S79" s="77"/>
+      <c r="T79" s="77"/>
+      <c r="U79" s="77"/>
+      <c r="V79" s="77"/>
+      <c r="W79" s="77"/>
+      <c r="X79" s="77"/>
+    </row>
+    <row r="80" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="55"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="76"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+    </row>
+    <row r="81" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="77"/>
+      <c r="R81" s="77"/>
+      <c r="S81" s="77"/>
+      <c r="T81" s="77"/>
+      <c r="U81" s="77"/>
+      <c r="V81" s="77"/>
+      <c r="W81" s="77"/>
+      <c r="X81" s="77"/>
+    </row>
+    <row r="82" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="55"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="57"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="77"/>
+      <c r="R82" s="77"/>
+      <c r="S82" s="77"/>
+      <c r="T82" s="77"/>
+      <c r="U82" s="77"/>
+      <c r="V82" s="77"/>
+      <c r="W82" s="77"/>
+      <c r="X82" s="77"/>
+    </row>
+    <row r="83" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="55"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="76"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="77"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="77"/>
+      <c r="T83" s="77"/>
+      <c r="U83" s="77"/>
+      <c r="V83" s="77"/>
+      <c r="W83" s="77"/>
+      <c r="X83" s="77"/>
+    </row>
+    <row r="84" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="76"/>
+      <c r="N84" s="77"/>
+      <c r="O84" s="77"/>
+      <c r="P84" s="77"/>
+      <c r="Q84" s="77"/>
+      <c r="R84" s="77"/>
+      <c r="S84" s="77"/>
+      <c r="T84" s="77"/>
+      <c r="U84" s="77"/>
+      <c r="V84" s="77"/>
+      <c r="W84" s="77"/>
+      <c r="X84" s="77"/>
+    </row>
+    <row r="85" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="55"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="58"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="77"/>
+      <c r="O85" s="77"/>
+      <c r="P85" s="77"/>
+      <c r="Q85" s="77"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="77"/>
+      <c r="T85" s="77"/>
+      <c r="U85" s="77"/>
+      <c r="V85" s="77"/>
+      <c r="W85" s="77"/>
+      <c r="X85" s="77"/>
+    </row>
+    <row r="86" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="58"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="76"/>
+      <c r="N86" s="77"/>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
+      <c r="T86" s="77"/>
+      <c r="U86" s="77"/>
+      <c r="V86" s="77"/>
+      <c r="W86" s="77"/>
+      <c r="X86" s="77"/>
+    </row>
+    <row r="87" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="76"/>
+      <c r="N87" s="77"/>
+      <c r="O87" s="77"/>
+      <c r="P87" s="77"/>
+      <c r="Q87" s="77"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="77"/>
+      <c r="T87" s="77"/>
+      <c r="U87" s="77"/>
+      <c r="V87" s="77"/>
+      <c r="W87" s="77"/>
+      <c r="X87" s="77"/>
+    </row>
+    <row r="88" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="58"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="76"/>
+      <c r="N88" s="77"/>
+      <c r="O88" s="77"/>
+      <c r="P88" s="77"/>
+      <c r="Q88" s="77"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="77"/>
+      <c r="T88" s="77"/>
+      <c r="U88" s="77"/>
+      <c r="V88" s="77"/>
+      <c r="W88" s="77"/>
+      <c r="X88" s="77"/>
+    </row>
+    <row r="89" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="57"/>
+      <c r="M89" s="76"/>
+      <c r="N89" s="77"/>
+      <c r="O89" s="77"/>
+      <c r="P89" s="77"/>
+      <c r="Q89" s="77"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="77"/>
+      <c r="T89" s="77"/>
+      <c r="U89" s="77"/>
+      <c r="V89" s="77"/>
+      <c r="W89" s="77"/>
+      <c r="X89" s="77"/>
+    </row>
+    <row r="90" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="57"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="58"/>
+      <c r="L90" s="57"/>
+      <c r="M90" s="76"/>
+      <c r="N90" s="77"/>
+      <c r="O90" s="77"/>
+      <c r="P90" s="77"/>
+      <c r="Q90" s="77"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="77"/>
+      <c r="T90" s="77"/>
+      <c r="U90" s="77"/>
+      <c r="V90" s="77"/>
+      <c r="W90" s="77"/>
+      <c r="X90" s="77"/>
+    </row>
+    <row r="91" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="57"/>
+      <c r="M91" s="76"/>
+      <c r="N91" s="77"/>
+      <c r="O91" s="77"/>
+      <c r="P91" s="77"/>
+      <c r="Q91" s="77"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="77"/>
+      <c r="T91" s="77"/>
+      <c r="U91" s="77"/>
+      <c r="V91" s="77"/>
+      <c r="W91" s="77"/>
+      <c r="X91" s="77"/>
+    </row>
+    <row r="92" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="55"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="58"/>
+      <c r="L92" s="57"/>
+      <c r="M92" s="76"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
+      <c r="P92" s="77"/>
+      <c r="Q92" s="77"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="77"/>
+      <c r="U92" s="77"/>
+      <c r="V92" s="77"/>
+      <c r="W92" s="77"/>
+      <c r="X92" s="77"/>
+    </row>
+    <row r="93" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="55"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="57"/>
+      <c r="M93" s="76"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="77"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="77"/>
+      <c r="T93" s="77"/>
+      <c r="U93" s="77"/>
+      <c r="V93" s="77"/>
+      <c r="W93" s="77"/>
+      <c r="X93" s="77"/>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="58"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="57"/>
       <c r="M94" s="6"/>
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
@@ -5433,18 +5444,18 @@
       <c r="X94" s="29"/>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="57"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="58"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="57"/>
       <c r="M95" s="6"/>
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
@@ -5459,18 +5470,18 @@
       <c r="X95" s="29"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="58"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="58"/>
+      <c r="L96" s="57"/>
       <c r="M96" s="6"/>
       <c r="N96" s="29"/>
       <c r="O96" s="29"/>
@@ -5485,18 +5496,18 @@
       <c r="X96" s="29"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A97" s="56"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="58"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="58"/>
+      <c r="L97" s="57"/>
       <c r="M97" s="6"/>
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
@@ -5511,18 +5522,18 @@
       <c r="X97" s="29"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="58"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="57"/>
       <c r="M98" s="6"/>
       <c r="N98" s="29"/>
       <c r="O98" s="29"/>
@@ -5537,18 +5548,18 @@
       <c r="X98" s="29"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="58"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="57"/>
       <c r="M99" s="6"/>
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
@@ -5563,18 +5574,18 @@
       <c r="X99" s="29"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="58"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="57"/>
       <c r="M100" s="6"/>
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
@@ -5589,18 +5600,18 @@
       <c r="X100" s="29"/>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="58"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="57"/>
       <c r="M101" s="6"/>
       <c r="N101" s="29"/>
       <c r="O101" s="29"/>
@@ -5615,18 +5626,18 @@
       <c r="X101" s="29"/>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A102" s="56"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="58"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="57"/>
       <c r="M102" s="6"/>
       <c r="N102" s="29"/>
       <c r="O102" s="29"/>
@@ -5641,18 +5652,18 @@
       <c r="X102" s="29"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="58"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="55"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="58"/>
+      <c r="L103" s="57"/>
       <c r="M103" s="6"/>
       <c r="N103" s="29"/>
       <c r="O103" s="29"/>
@@ -5667,18 +5678,18 @@
       <c r="X103" s="29"/>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A104" s="56"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="58"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="58"/>
+      <c r="L104" s="57"/>
       <c r="M104" s="6"/>
       <c r="N104" s="29"/>
       <c r="O104" s="29"/>
@@ -5693,18 +5704,18 @@
       <c r="X104" s="29"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="58"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="57"/>
       <c r="M105" s="6"/>
       <c r="N105" s="29"/>
       <c r="O105" s="29"/>
@@ -5719,18 +5730,18 @@
       <c r="X105" s="29"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A106" s="56"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="58"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="55"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="58"/>
+      <c r="L106" s="57"/>
       <c r="M106" s="6"/>
       <c r="N106" s="29"/>
       <c r="O106" s="29"/>
@@ -5745,18 +5756,18 @@
       <c r="X106" s="29"/>
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A107" s="56"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="58"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="58"/>
+      <c r="L107" s="57"/>
       <c r="M107" s="6"/>
       <c r="N107" s="29"/>
       <c r="O107" s="29"/>
@@ -5771,18 +5782,18 @@
       <c r="X107" s="29"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A108" s="56"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="58"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="58"/>
+      <c r="L108" s="57"/>
       <c r="M108" s="6"/>
       <c r="N108" s="29"/>
       <c r="O108" s="29"/>
@@ -5797,18 +5808,18 @@
       <c r="X108" s="29"/>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="59"/>
-      <c r="L109" s="58"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="57"/>
       <c r="M109" s="6"/>
       <c r="N109" s="29"/>
       <c r="O109" s="29"/>
@@ -5823,18 +5834,18 @@
       <c r="X109" s="29"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A110" s="56"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="59"/>
-      <c r="L110" s="58"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="58"/>
+      <c r="L110" s="57"/>
       <c r="M110" s="6"/>
       <c r="N110" s="29"/>
       <c r="O110" s="29"/>
@@ -5849,18 +5860,18 @@
       <c r="X110" s="29"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="59"/>
-      <c r="L111" s="58"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="58"/>
+      <c r="L111" s="57"/>
       <c r="M111" s="6"/>
       <c r="N111" s="29"/>
       <c r="O111" s="29"/>
@@ -5875,18 +5886,18 @@
       <c r="X111" s="29"/>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="58"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="59"/>
-      <c r="L112" s="58"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="57"/>
+      <c r="D112" s="56"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="58"/>
+      <c r="L112" s="57"/>
       <c r="M112" s="6"/>
       <c r="N112" s="29"/>
       <c r="O112" s="29"/>
@@ -5901,18 +5912,18 @@
       <c r="X112" s="29"/>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="57"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="58"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="59"/>
-      <c r="L113" s="58"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="58"/>
+      <c r="L113" s="57"/>
       <c r="M113" s="6"/>
       <c r="N113" s="29"/>
       <c r="O113" s="29"/>
@@ -5927,18 +5938,18 @@
       <c r="X113" s="29"/>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A114" s="56"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="59"/>
-      <c r="L114" s="58"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="57"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="58"/>
+      <c r="L114" s="57"/>
       <c r="M114" s="6"/>
       <c r="N114" s="29"/>
       <c r="O114" s="29"/>
@@ -5953,18 +5964,18 @@
       <c r="X114" s="29"/>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A115" s="56"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="59"/>
-      <c r="L115" s="58"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="57"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="57"/>
       <c r="M115" s="6"/>
       <c r="N115" s="29"/>
       <c r="O115" s="29"/>
@@ -5979,18 +5990,18 @@
       <c r="X115" s="29"/>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="57"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="58"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="59"/>
-      <c r="L116" s="58"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="58"/>
+      <c r="L116" s="57"/>
       <c r="M116" s="6"/>
       <c r="N116" s="29"/>
       <c r="O116" s="29"/>
@@ -6005,18 +6016,18 @@
       <c r="X116" s="29"/>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="58"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="59"/>
-      <c r="L117" s="58"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="57"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="58"/>
+      <c r="L117" s="57"/>
       <c r="M117" s="6"/>
       <c r="N117" s="29"/>
       <c r="O117" s="29"/>
@@ -6031,18 +6042,18 @@
       <c r="X117" s="29"/>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A118" s="56"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="59"/>
-      <c r="L118" s="58"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="56"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="58"/>
+      <c r="L118" s="57"/>
       <c r="M118" s="6"/>
       <c r="N118" s="29"/>
       <c r="O118" s="29"/>
@@ -6057,18 +6068,18 @@
       <c r="X118" s="29"/>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A119" s="56"/>
-      <c r="B119" s="56"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="58"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="59"/>
-      <c r="L119" s="58"/>
+      <c r="A119" s="55"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="58"/>
+      <c r="L119" s="57"/>
       <c r="M119" s="6"/>
       <c r="N119" s="29"/>
       <c r="O119" s="29"/>
@@ -6083,18 +6094,18 @@
       <c r="X119" s="29"/>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A120" s="56"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="59"/>
-      <c r="L120" s="58"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="57"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="57"/>
+      <c r="J120" s="57"/>
+      <c r="K120" s="58"/>
+      <c r="L120" s="57"/>
       <c r="M120" s="6"/>
       <c r="N120" s="29"/>
       <c r="O120" s="29"/>
@@ -6109,18 +6120,18 @@
       <c r="X120" s="29"/>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A121" s="56"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="58"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="59"/>
-      <c r="L121" s="58"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="58"/>
+      <c r="L121" s="57"/>
       <c r="M121" s="6"/>
       <c r="N121" s="29"/>
       <c r="O121" s="29"/>
@@ -6135,18 +6146,18 @@
       <c r="X121" s="29"/>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A122" s="56"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="58"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="59"/>
-      <c r="L122" s="58"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="58"/>
+      <c r="L122" s="57"/>
       <c r="M122" s="6"/>
       <c r="N122" s="29"/>
       <c r="O122" s="29"/>
@@ -6161,18 +6172,18 @@
       <c r="X122" s="29"/>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A123" s="56"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="58"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="59"/>
-      <c r="L123" s="58"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="57"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="58"/>
+      <c r="L123" s="57"/>
       <c r="M123" s="6"/>
       <c r="N123" s="29"/>
       <c r="O123" s="29"/>
@@ -6187,18 +6198,18 @@
       <c r="X123" s="29"/>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A124" s="56"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="58"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="58"/>
-      <c r="K124" s="59"/>
-      <c r="L124" s="58"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="57"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="58"/>
+      <c r="L124" s="57"/>
       <c r="M124" s="6"/>
       <c r="N124" s="29"/>
       <c r="O124" s="29"/>
@@ -6213,18 +6224,18 @@
       <c r="X124" s="29"/>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A125" s="56"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="57"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="58"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="58"/>
-      <c r="K125" s="59"/>
-      <c r="L125" s="58"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="57"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="58"/>
+      <c r="L125" s="57"/>
       <c r="M125" s="6"/>
       <c r="N125" s="29"/>
       <c r="O125" s="29"/>
@@ -6239,18 +6250,18 @@
       <c r="X125" s="29"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A126" s="56"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="58"/>
-      <c r="I126" s="58"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="59"/>
-      <c r="L126" s="58"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="56"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="58"/>
+      <c r="L126" s="57"/>
       <c r="M126" s="6"/>
       <c r="N126" s="29"/>
       <c r="O126" s="29"/>
@@ -6265,18 +6276,18 @@
       <c r="X126" s="29"/>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A127" s="56"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="58"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="59"/>
-      <c r="L127" s="58"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="57"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="58"/>
+      <c r="L127" s="57"/>
       <c r="M127" s="6"/>
       <c r="N127" s="29"/>
       <c r="O127" s="29"/>
@@ -6291,18 +6302,18 @@
       <c r="X127" s="29"/>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A128" s="56"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
-      <c r="H128" s="58"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="59"/>
-      <c r="L128" s="58"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="58"/>
+      <c r="L128" s="57"/>
       <c r="M128" s="6"/>
       <c r="N128" s="29"/>
       <c r="O128" s="29"/>
@@ -6317,18 +6328,18 @@
       <c r="X128" s="29"/>
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A129" s="56"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="58"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="59"/>
-      <c r="L129" s="58"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="57"/>
+      <c r="D129" s="56"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="55"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="58"/>
+      <c r="L129" s="57"/>
       <c r="M129" s="6"/>
       <c r="N129" s="29"/>
       <c r="O129" s="29"/>
@@ -6343,18 +6354,18 @@
       <c r="X129" s="29"/>
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A130" s="56"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="58"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
-      <c r="K130" s="59"/>
-      <c r="L130" s="58"/>
+      <c r="A130" s="55"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="57"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="58"/>
+      <c r="L130" s="57"/>
       <c r="M130" s="6"/>
       <c r="N130" s="29"/>
       <c r="O130" s="29"/>
@@ -6369,18 +6380,18 @@
       <c r="X130" s="29"/>
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A131" s="56"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="57"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="59"/>
-      <c r="L131" s="58"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="58"/>
+      <c r="L131" s="57"/>
       <c r="M131" s="6"/>
       <c r="N131" s="29"/>
       <c r="O131" s="29"/>
@@ -6395,18 +6406,18 @@
       <c r="X131" s="29"/>
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A132" s="56"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="59"/>
-      <c r="L132" s="58"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="58"/>
+      <c r="L132" s="57"/>
       <c r="M132" s="6"/>
       <c r="N132" s="29"/>
       <c r="O132" s="29"/>
@@ -6421,18 +6432,18 @@
       <c r="X132" s="29"/>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A133" s="56"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="58"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="59"/>
-      <c r="L133" s="58"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="57"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="58"/>
+      <c r="L133" s="57"/>
       <c r="M133" s="6"/>
       <c r="N133" s="29"/>
       <c r="O133" s="29"/>
@@ -6447,18 +6458,18 @@
       <c r="X133" s="29"/>
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A134" s="56"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
-      <c r="H134" s="58"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="59"/>
-      <c r="L134" s="58"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="58"/>
+      <c r="L134" s="57"/>
       <c r="M134" s="6"/>
       <c r="N134" s="29"/>
       <c r="O134" s="29"/>
@@ -6473,18 +6484,18 @@
       <c r="X134" s="29"/>
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A135" s="56"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="59"/>
-      <c r="L135" s="58"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="58"/>
+      <c r="L135" s="57"/>
       <c r="M135" s="6"/>
       <c r="N135" s="29"/>
       <c r="O135" s="29"/>
@@ -6499,18 +6510,18 @@
       <c r="X135" s="29"/>
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A136" s="56"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56"/>
-      <c r="H136" s="58"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="59"/>
-      <c r="L136" s="58"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="58"/>
+      <c r="L136" s="57"/>
       <c r="M136" s="6"/>
       <c r="N136" s="29"/>
       <c r="O136" s="29"/>
@@ -6525,18 +6536,18 @@
       <c r="X136" s="29"/>
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A137" s="56"/>
-      <c r="B137" s="56"/>
-      <c r="C137" s="58"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="59"/>
-      <c r="L137" s="58"/>
+      <c r="A137" s="55"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="57"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="57"/>
+      <c r="K137" s="58"/>
+      <c r="L137" s="57"/>
       <c r="M137" s="6"/>
       <c r="N137" s="29"/>
       <c r="O137" s="29"/>
@@ -6551,18 +6562,18 @@
       <c r="X137" s="29"/>
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A138" s="56"/>
-      <c r="B138" s="56"/>
-      <c r="C138" s="58"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
-      <c r="G138" s="56"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="59"/>
-      <c r="L138" s="58"/>
+      <c r="A138" s="55"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="56"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="57"/>
+      <c r="K138" s="58"/>
+      <c r="L138" s="57"/>
       <c r="M138" s="6"/>
       <c r="N138" s="29"/>
       <c r="O138" s="29"/>
@@ -6577,18 +6588,18 @@
       <c r="X138" s="29"/>
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A139" s="56"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="58"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56"/>
-      <c r="H139" s="58"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="59"/>
-      <c r="L139" s="58"/>
+      <c r="A139" s="55"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="55"/>
+      <c r="G139" s="55"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="58"/>
+      <c r="L139" s="57"/>
       <c r="M139" s="6"/>
       <c r="N139" s="29"/>
       <c r="O139" s="29"/>
@@ -6603,18 +6614,18 @@
       <c r="X139" s="29"/>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A140" s="56"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="57"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56"/>
-      <c r="H140" s="58"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="59"/>
-      <c r="L140" s="58"/>
+      <c r="A140" s="55"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="57"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="57"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="57"/>
       <c r="M140" s="6"/>
       <c r="N140" s="29"/>
       <c r="O140" s="29"/>
@@ -6629,18 +6640,18 @@
       <c r="X140" s="29"/>
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A141" s="56"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="58"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56"/>
-      <c r="H141" s="58"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="59"/>
-      <c r="L141" s="58"/>
+      <c r="A141" s="55"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="57"/>
+      <c r="D141" s="56"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="57"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
+      <c r="K141" s="58"/>
+      <c r="L141" s="57"/>
       <c r="M141" s="6"/>
       <c r="N141" s="29"/>
       <c r="O141" s="29"/>
@@ -6655,18 +6666,18 @@
       <c r="X141" s="29"/>
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A142" s="56"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56"/>
-      <c r="H142" s="58"/>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="59"/>
-      <c r="L142" s="58"/>
+      <c r="A142" s="55"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="56"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="55"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="57"/>
+      <c r="K142" s="58"/>
+      <c r="L142" s="57"/>
       <c r="M142" s="6"/>
       <c r="N142" s="29"/>
       <c r="O142" s="29"/>
@@ -6681,18 +6692,18 @@
       <c r="X142" s="29"/>
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A143" s="56"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="58"/>
-      <c r="D143" s="57"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
-      <c r="H143" s="58"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="59"/>
-      <c r="L143" s="58"/>
+      <c r="A143" s="55"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="57"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="55"/>
+      <c r="F143" s="55"/>
+      <c r="G143" s="55"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="57"/>
+      <c r="K143" s="58"/>
+      <c r="L143" s="57"/>
       <c r="M143" s="6"/>
       <c r="N143" s="29"/>
       <c r="O143" s="29"/>
@@ -6707,18 +6718,18 @@
       <c r="X143" s="29"/>
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A144" s="56"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="58"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56"/>
-      <c r="H144" s="58"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="58"/>
-      <c r="K144" s="59"/>
-      <c r="L144" s="58"/>
+      <c r="A144" s="55"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="58"/>
+      <c r="L144" s="57"/>
       <c r="M144" s="6"/>
       <c r="N144" s="29"/>
       <c r="O144" s="29"/>
@@ -6733,18 +6744,18 @@
       <c r="X144" s="29"/>
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A145" s="56"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="59"/>
-      <c r="L145" s="58"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="57"/>
+      <c r="K145" s="58"/>
+      <c r="L145" s="57"/>
       <c r="M145" s="6"/>
       <c r="N145" s="29"/>
       <c r="O145" s="29"/>
@@ -6759,18 +6770,18 @@
       <c r="X145" s="29"/>
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A146" s="56"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56"/>
-      <c r="H146" s="58"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="59"/>
-      <c r="L146" s="58"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="58"/>
+      <c r="L146" s="57"/>
       <c r="M146" s="6"/>
       <c r="N146" s="29"/>
       <c r="O146" s="29"/>
@@ -6785,18 +6796,18 @@
       <c r="X146" s="29"/>
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A147" s="56"/>
-      <c r="B147" s="56"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56"/>
-      <c r="H147" s="58"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="59"/>
-      <c r="L147" s="58"/>
+      <c r="A147" s="55"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="57"/>
+      <c r="K147" s="58"/>
+      <c r="L147" s="57"/>
       <c r="M147" s="6"/>
       <c r="N147" s="29"/>
       <c r="O147" s="29"/>
@@ -6811,18 +6822,18 @@
       <c r="X147" s="29"/>
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A148" s="56"/>
-      <c r="B148" s="56"/>
-      <c r="C148" s="58"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
-      <c r="H148" s="58"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="59"/>
-      <c r="L148" s="58"/>
+      <c r="A148" s="55"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="57"/>
+      <c r="K148" s="58"/>
+      <c r="L148" s="57"/>
       <c r="M148" s="6"/>
       <c r="N148" s="29"/>
       <c r="O148" s="29"/>
@@ -6837,18 +6848,18 @@
       <c r="X148" s="29"/>
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A149" s="56"/>
-      <c r="B149" s="56"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="56"/>
-      <c r="H149" s="58"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="59"/>
-      <c r="L149" s="58"/>
+      <c r="A149" s="55"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="57"/>
+      <c r="K149" s="58"/>
+      <c r="L149" s="57"/>
       <c r="M149" s="6"/>
       <c r="N149" s="29"/>
       <c r="O149" s="29"/>
@@ -6863,18 +6874,18 @@
       <c r="X149" s="29"/>
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A150" s="56"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56"/>
-      <c r="H150" s="58"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="59"/>
-      <c r="L150" s="58"/>
+      <c r="A150" s="55"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="57"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="57"/>
+      <c r="K150" s="58"/>
+      <c r="L150" s="57"/>
       <c r="M150" s="6"/>
       <c r="N150" s="29"/>
       <c r="O150" s="29"/>
@@ -6889,18 +6900,18 @@
       <c r="X150" s="29"/>
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A151" s="56"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="58"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="58"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="59"/>
-      <c r="L151" s="58"/>
+      <c r="A151" s="55"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="57"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="55"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="57"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="57"/>
       <c r="M151" s="6"/>
       <c r="N151" s="29"/>
       <c r="O151" s="29"/>
@@ -6915,18 +6926,18 @@
       <c r="X151" s="29"/>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A152" s="56"/>
-      <c r="B152" s="56"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56"/>
-      <c r="H152" s="58"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="59"/>
-      <c r="L152" s="58"/>
+      <c r="A152" s="55"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="57"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="57"/>
+      <c r="K152" s="58"/>
+      <c r="L152" s="57"/>
       <c r="M152" s="6"/>
       <c r="N152" s="29"/>
       <c r="O152" s="29"/>
@@ -6941,18 +6952,18 @@
       <c r="X152" s="29"/>
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A153" s="56"/>
-      <c r="B153" s="56"/>
-      <c r="C153" s="58"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
-      <c r="H153" s="58"/>
-      <c r="I153" s="58"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="59"/>
-      <c r="L153" s="58"/>
+      <c r="A153" s="55"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="57"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="57"/>
+      <c r="K153" s="58"/>
+      <c r="L153" s="57"/>
       <c r="M153" s="6"/>
       <c r="N153" s="29"/>
       <c r="O153" s="29"/>
@@ -6967,18 +6978,18 @@
       <c r="X153" s="29"/>
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A154" s="56"/>
-      <c r="B154" s="56"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56"/>
-      <c r="H154" s="58"/>
-      <c r="I154" s="58"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="59"/>
-      <c r="L154" s="58"/>
+      <c r="A154" s="55"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="57"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="58"/>
+      <c r="L154" s="57"/>
       <c r="M154" s="6"/>
       <c r="N154" s="29"/>
       <c r="O154" s="29"/>
@@ -6993,18 +7004,18 @@
       <c r="X154" s="29"/>
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A155" s="56"/>
-      <c r="B155" s="56"/>
-      <c r="C155" s="58"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56"/>
-      <c r="H155" s="58"/>
-      <c r="I155" s="58"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="59"/>
-      <c r="L155" s="58"/>
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="57"/>
+      <c r="K155" s="58"/>
+      <c r="L155" s="57"/>
       <c r="M155" s="6"/>
       <c r="N155" s="29"/>
       <c r="O155" s="29"/>
@@ -7019,18 +7030,18 @@
       <c r="X155" s="29"/>
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A156" s="56"/>
-      <c r="B156" s="56"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56"/>
-      <c r="H156" s="58"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="59"/>
-      <c r="L156" s="58"/>
+      <c r="A156" s="55"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="56"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="55"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="58"/>
+      <c r="L156" s="57"/>
       <c r="M156" s="6"/>
       <c r="N156" s="29"/>
       <c r="O156" s="29"/>
@@ -7045,18 +7056,18 @@
       <c r="X156" s="29"/>
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A157" s="56"/>
-      <c r="B157" s="56"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="59"/>
-      <c r="L157" s="58"/>
+      <c r="A157" s="55"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="55"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="57"/>
+      <c r="K157" s="58"/>
+      <c r="L157" s="57"/>
       <c r="M157" s="6"/>
       <c r="N157" s="29"/>
       <c r="O157" s="29"/>
@@ -7071,18 +7082,18 @@
       <c r="X157" s="29"/>
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A158" s="56"/>
-      <c r="B158" s="56"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56"/>
-      <c r="G158" s="56"/>
-      <c r="H158" s="58"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="59"/>
-      <c r="L158" s="58"/>
+      <c r="A158" s="55"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="58"/>
+      <c r="L158" s="57"/>
       <c r="M158" s="6"/>
       <c r="N158" s="29"/>
       <c r="O158" s="29"/>
@@ -7097,18 +7108,18 @@
       <c r="X158" s="29"/>
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A159" s="56"/>
-      <c r="B159" s="56"/>
-      <c r="C159" s="58"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="56"/>
-      <c r="G159" s="56"/>
-      <c r="H159" s="58"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="59"/>
-      <c r="L159" s="58"/>
+      <c r="A159" s="55"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="57"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="55"/>
+      <c r="G159" s="55"/>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="57"/>
+      <c r="K159" s="58"/>
+      <c r="L159" s="57"/>
       <c r="M159" s="6"/>
       <c r="N159" s="29"/>
       <c r="O159" s="29"/>
@@ -7123,18 +7134,18 @@
       <c r="X159" s="29"/>
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A160" s="56"/>
-      <c r="B160" s="56"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56"/>
-      <c r="G160" s="56"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="59"/>
-      <c r="L160" s="58"/>
+      <c r="A160" s="55"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="55"/>
+      <c r="G160" s="55"/>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="57"/>
+      <c r="K160" s="58"/>
+      <c r="L160" s="57"/>
       <c r="M160" s="6"/>
       <c r="N160" s="29"/>
       <c r="O160" s="29"/>
@@ -7149,18 +7160,18 @@
       <c r="X160" s="29"/>
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A161" s="56"/>
-      <c r="B161" s="56"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="58"/>
+      <c r="A161" s="55"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="55"/>
+      <c r="F161" s="55"/>
+      <c r="G161" s="55"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="58"/>
+      <c r="L161" s="57"/>
       <c r="M161" s="6"/>
       <c r="N161" s="29"/>
       <c r="O161" s="29"/>
@@ -7175,18 +7186,18 @@
       <c r="X161" s="29"/>
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A162" s="56"/>
-      <c r="B162" s="56"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-      <c r="G162" s="56"/>
-      <c r="H162" s="58"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="59"/>
-      <c r="L162" s="58"/>
+      <c r="A162" s="55"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="57"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="55"/>
+      <c r="G162" s="55"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="58"/>
+      <c r="L162" s="57"/>
       <c r="M162" s="6"/>
       <c r="N162" s="29"/>
       <c r="O162" s="29"/>
@@ -7201,29 +7212,29 @@
       <c r="X162" s="29"/>
     </row>
     <row r="163" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="65" t="s">
+      <c r="A163" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="67"/>
-      <c r="H163" s="60">
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="64"/>
+      <c r="E163" s="64"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="59">
         <f>SUM(H4:H162)</f>
         <v>80</v>
       </c>
-      <c r="I163" s="60">
+      <c r="I163" s="59">
         <f t="shared" ref="I163:J163" si="0">SUM(I4:I162)</f>
-        <v>60</v>
-      </c>
-      <c r="J163" s="60">
+        <v>108</v>
+      </c>
+      <c r="J163" s="59">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K163" s="61"/>
-      <c r="L163" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K163" s="60"/>
+      <c r="L163" s="61" t="s">
         <v>2</v>
       </c>
       <c r="M163" s="6"/>
@@ -11389,6 +11400,7 @@
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
+  <autoFilter ref="A3:L37"/>
   <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="A163:G163"/>
@@ -11426,7 +11438,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11451,16 +11463,16 @@
         <f>'Product Backlog'!B1</f>
         <v>PUF Information System</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -11484,14 +11496,14 @@
         <f>'Product Backlog'!B2</f>
         <v>MINF16SOFT</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -11534,11 +11546,11 @@
       <c r="X3" s="43"/>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="31">
         <v>5</v>
       </c>
@@ -11564,11 +11576,11 @@
       <c r="X4" s="43"/>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="23">
         <v>15</v>
       </c>
@@ -11723,7 +11735,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="41">
-        <v>43196</v>
+        <v>43210</v>
       </c>
       <c r="E9" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$168,'Sprints Release Plan'!A9,'Product Backlog'!$H$4:$H$168)</f>
@@ -11731,11 +11743,11 @@
       </c>
       <c r="F9" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$162,'Sprints Release Plan'!A9,'Product Backlog'!$I$4:$I$162)</f>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G9" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$162,'Sprints Release Plan'!A9,'Product Backlog'!$J$4:$J$162)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H9" s="25" t="s">
         <v>16</v>
@@ -11763,13 +11775,13 @@
       </c>
       <c r="B10" s="42">
         <f t="shared" si="0"/>
-        <v>43199</v>
+        <v>43213</v>
       </c>
       <c r="C10" s="40">
         <v>14</v>
       </c>
       <c r="D10" s="41">
-        <v>43217</v>
+        <v>43231</v>
       </c>
       <c r="E10" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$168,'Sprints Release Plan'!A10,'Product Backlog'!$H$4:$H$168)</f>
@@ -11809,13 +11821,13 @@
       </c>
       <c r="B11" s="42">
         <f t="shared" si="0"/>
-        <v>43220</v>
+        <v>43234</v>
       </c>
       <c r="C11" s="40">
         <v>13</v>
       </c>
       <c r="D11" s="41">
-        <v>43238</v>
+        <v>43252</v>
       </c>
       <c r="E11" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$168,'Sprints Release Plan'!A11,'Product Backlog'!$H$4:$H$168)</f>
@@ -11855,14 +11867,14 @@
       </c>
       <c r="B12" s="42">
         <f t="shared" si="0"/>
-        <v>43241</v>
+        <v>43255</v>
       </c>
       <c r="C12" s="40">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D12" s="41">
-        <v>43259</v>
+        <v>43280</v>
       </c>
       <c r="E12" s="40">
         <f>SUMIF('Product Backlog'!$L$4:$L$168,'Sprints Release Plan'!A12,'Product Backlog'!$H$4:$H$168)</f>
@@ -11897,34 +11909,14 @@
       <c r="X12" s="43"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="42">
-        <f t="shared" si="0"/>
-        <v>43262</v>
-      </c>
-      <c r="C13" s="40">
-        <v>15</v>
-      </c>
-      <c r="D13" s="41">
-        <v>43280</v>
-      </c>
-      <c r="E13" s="40">
-        <f>SUMIF('Product Backlog'!$L$4:$L$168,'Sprints Release Plan'!A13,'Product Backlog'!$H$4:$H$168)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="40">
-        <f>SUMIF('Product Backlog'!$L$4:$L$162,'Sprints Release Plan'!A13,'Product Backlog'!$I$4:$I$162)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="40">
-        <f>SUMIF('Product Backlog'!$L$4:$L$162,'Sprints Release Plan'!A13,'Product Backlog'!$J$4:$J$162)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="A13" s="18"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="16"/>
       <c r="J13" s="19"/>
       <c r="K13" s="1"/>
@@ -12809,15 +12801,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023662025C7AE744AAF0BB0637D51E0C5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edc3b558e1a2516ac617c67b60f9fe5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -12931,6 +12914,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDE2E5D-563E-4CC7-8A85-0D61939D854F}">
   <ds:schemaRefs>
@@ -12947,14 +12939,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C931FA-1EDF-4C29-B08E-40AB71C21081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AA1D293-2666-4BF0-B7EA-B2365AF1060F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12968,4 +12952,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C931FA-1EDF-4C29-B08E-40AB71C21081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>